--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgb-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgb-Itga5.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.72417333333333</v>
+        <v>10.34761366666667</v>
       </c>
       <c r="N2">
-        <v>86.17251999999999</v>
+        <v>31.042841</v>
       </c>
       <c r="O2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="P2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="Q2">
-        <v>16.01575647491555</v>
+        <v>5.769525850532444</v>
       </c>
       <c r="R2">
-        <v>144.14180827424</v>
+        <v>51.925732654792</v>
       </c>
       <c r="S2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
       <c r="T2">
-        <v>0.4233259107972328</v>
+        <v>0.2299953477621856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>91.709587</v>
       </c>
       <c r="O3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="P3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
       <c r="Q3">
         <v>17.04485852110489</v>
@@ -632,10 +632,10 @@
         <v>153.403726689944</v>
       </c>
       <c r="S3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692173</v>
       </c>
       <c r="T3">
-        <v>0.4505269713084062</v>
+        <v>0.6794731949692174</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.559531999999999</v>
+        <v>4.073058666666666</v>
       </c>
       <c r="N4">
-        <v>25.678596</v>
+        <v>12.219176</v>
       </c>
       <c r="O4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="P4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
       <c r="Q4">
-        <v>4.772543963594666</v>
+        <v>2.271018036145778</v>
       </c>
       <c r="R4">
-        <v>42.952895672352</v>
+        <v>20.439162325312</v>
       </c>
       <c r="S4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859702</v>
       </c>
       <c r="T4">
-        <v>0.126147117894361</v>
+        <v>0.09053145726859703</v>
       </c>
     </row>
   </sheetData>
